--- a/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
+++ b/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>60.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9492</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164401</t>
+          <t>005094</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源中证健康产业指数</t>
+          <t>万家臻选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>55.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9108</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.61</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.10</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2117</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>62.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>62.18</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6721</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>164205</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>天弘文化新兴产业股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>74.92</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>78.07</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3845</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -772,25 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>164205</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘文化新兴产业股票</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001983</t>
+          <t>164401</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中邮低碳经济灵活配置混合</t>
+          <t>前海开源中证健康产业指数</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005094</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家臻选混合</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>64.83</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002585</t>
+          <t>001983</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建信兴利灵活配置混合</t>
+          <t>中邮低碳经济灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>59.97</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>002585</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
+          <t>建信兴利灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>005094</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>万家臻选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>160926</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>大成创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160926</t>
+          <t>003634</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合A</t>
+          <t>嘉实农业产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>22.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1912</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009798</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合C</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6770</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005094</t>
+          <t>009798</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家臻选混合</t>
+          <t>大成创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.41</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1220,15 +1480,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>79.48</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>7.05</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003634</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实农业产业股票</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1276,15 +1556,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>5.38</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
+++ b/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1617</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4759</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
+++ b/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2094,4 +2095,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0891</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7406</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3100</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7441</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6779</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6313</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3543</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2546</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
+++ b/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2607,4 +2608,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
+++ b/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2616,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,17 +2628,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2647,14 +2668,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.58</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1884</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2663,14 +2706,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.38</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2679,14 +2744,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.93</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2695,13 +2782,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3865</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0180</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7528</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6624</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>13.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
+++ b/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3015,7 +3016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3026,17 +3027,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3046,14 +3067,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.25</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0910</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3062,14 +3105,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.58</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0421</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3078,14 +3143,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.38</v>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3094,14 +3181,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.93</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5523</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3110,13 +3219,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1796</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6406</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5627</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5573</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>13.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
+++ b/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3680,7 +3681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3691,17 +3692,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3711,14 +3732,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.63</v>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3727,14 +3770,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.25</v>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0326</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3743,14 +3808,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.58</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6725</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3759,14 +3846,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.38</v>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4715</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3775,14 +3884,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.93</v>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1261</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3791,13 +3922,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8579</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>13.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
+++ b/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>9.94</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>11.63</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>10.25</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>10.58</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>10.38</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>9.93</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>13.33</v>
       </c>
     </row>
@@ -600,6 +617,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3742</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1603</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9142</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3355</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,7 +2228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2052,518 +2619,6 @@
       </c>
       <c r="H10" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0891</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7406</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009199</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家价值优势一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3227</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003634</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实农业产业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>24.67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3100</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8111</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005094</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家臻选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7441</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012412</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇泉策略优选混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>35.87</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>39.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6779</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005106</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华农业产业股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.47</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.57</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6313</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161912</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.66</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6255</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3543</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>78.49</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2546</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>161913</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>80.66</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2638,22 +2693,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.15</t>
+          <t>25.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6230</t>
+          <t>2.0891</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2666,36 +2721,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005094</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家臻选混合</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.42</t>
+          <t>20.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0565</t>
+          <t>1.7406</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2704,36 +2759,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160926</t>
+          <t>009199</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合A</t>
+          <t>万家价值优势一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.69</t>
+          <t>16.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6789</t>
+          <t>1.3227</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2742,36 +2797,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009199</t>
+          <t>003634</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家价值优势一年持有期混合</t>
+          <t>嘉实农业产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>24.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>87.41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1617</t>
+          <t>1.3100</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2780,36 +2835,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003634</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实农业产业股票</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.27</t>
+          <t>96.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0118</t>
+          <t>0.8111</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2818,36 +2873,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>005094</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>万家臻选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.98</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6274</t>
+          <t>0.7441</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2856,36 +2911,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>012412</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>汇泉策略优选混合型证券投资基金</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>35.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>39.78</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4759</t>
+          <t>0.6779</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2894,36 +2949,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009798</t>
+          <t>005106</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合C</t>
+          <t>银华农业产业股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>82.57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2792</t>
+          <t>0.6313</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2932,36 +2987,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>161912</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.83</t>
+          <t>80.66</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2470</t>
+          <t>0.6255</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2970,36 +3025,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>92.26</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1042</t>
+          <t>0.3543</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -3008,36 +3063,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>81.33</t>
+          <t>78.49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0899</t>
+          <t>0.2546</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3046,36 +3101,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>161913</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>77.47</t>
+          <t>80.66</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3084,6 +3139,518 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1617</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4759</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3519,7 +4086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
+++ b/数据整理/stocks/A股/创业板/300087-荃银高科.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>7.68</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>9.94</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>11.63</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>10.25</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>10.58</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>10.38</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>9.93</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>13.33</v>
       </c>
     </row>
@@ -616,7 +633,1487 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9492</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9108</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2117</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6721</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3845</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2168</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2067</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8565</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6913</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2750</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5614</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5103</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4602</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4557</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1166,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1564,7 +3061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2228,7 +3725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2619,518 +4116,6 @@
       </c>
       <c r="H10" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0891</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7406</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009199</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家价值优势一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3227</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003634</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实农业产业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>24.67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3100</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8111</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005094</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家臻选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7441</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012412</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇泉策略优选混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>35.87</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>39.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6779</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005106</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华农业产业股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.47</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.57</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6313</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161912</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.66</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6255</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3543</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>78.49</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2546</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>161913</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家社会责任18个月定期开放混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>80.66</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3205,22 +4190,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.15</t>
+          <t>25.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6230</t>
+          <t>2.0891</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3233,36 +4218,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005094</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家臻选混合</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.42</t>
+          <t>20.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0565</t>
+          <t>1.7406</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3271,36 +4256,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160926</t>
+          <t>009199</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合A</t>
+          <t>万家价值优势一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.69</t>
+          <t>16.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6789</t>
+          <t>1.3227</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3309,36 +4294,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009199</t>
+          <t>003634</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家价值优势一年持有期混合</t>
+          <t>嘉实农业产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>24.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>87.41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1617</t>
+          <t>1.3100</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3347,36 +4332,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003634</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实农业产业股票</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.27</t>
+          <t>96.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0118</t>
+          <t>0.8111</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3385,36 +4370,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>005094</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>万家臻选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.98</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6274</t>
+          <t>0.7441</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3423,36 +4408,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>012412</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>汇泉策略优选混合型证券投资基金</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>35.87</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>39.78</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4759</t>
+          <t>0.6779</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -3461,36 +4446,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009798</t>
+          <t>005106</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合C</t>
+          <t>银华农业产业股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>82.57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2792</t>
+          <t>0.6313</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -3499,36 +4484,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>161912</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.83</t>
+          <t>80.66</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2470</t>
+          <t>0.6255</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -3537,36 +4522,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>92.26</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1042</t>
+          <t>0.3543</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -3575,36 +4560,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>81.33</t>
+          <t>78.49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0899</t>
+          <t>0.2546</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3613,36 +4598,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>161913</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>77.47</t>
+          <t>80.66</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3651,6 +4636,518 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005094</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家臻选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1617</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4759</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4084,706 +5581,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>60.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.9492</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005094</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家臻选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>64.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.9108</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003634</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实农业产业股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4392</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.92</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2117</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>62.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8799</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519019</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成景阳领先混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6721</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5562</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>164205</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>天弘文化新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4409</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005233</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3891</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.07</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3845</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2220</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>090016</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成消费主题混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0998</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>164401</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源中证健康产业指数</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0711</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0418</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001983</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中邮低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>540007</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002585</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信兴利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>59.97</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>